--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/752ec8de24da2098/ドキュメント/創作物/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{A0D8629C-C7CA-44C9-A599-78ECEFE34A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21C1D63-8601-405E-8D90-C0FECED74289}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C54588-EE25-4D28-B038-4C0A66E621E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>・フォントを使い、スコア （スコアの値）と表示する。</t>
   </si>
   <si>
-    <t>▼残りの「岩」の数の表示</t>
-  </si>
-  <si>
     <t>・数についてはフォントを使い、x （残り岩の数）と表示する。</t>
   </si>
   <si>
@@ -354,19 +351,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>・全ての岩を破壊すればステージクリア。</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>・敵にプレイヤーが当たったら最初からやり直し。</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
@@ -383,13 +367,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>・5つの面をクリアしたらエンディングシーンへ</t>
-    <rPh sb="4" eb="5">
-      <t>メン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>５．メインゲーム画面</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -705,13 +682,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>・岩の画像（3Dモデル）を残り岩の数の左隣に表示させる。</t>
-    <rPh sb="15" eb="16">
-      <t>イワ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>５－７．プレイヤーの弾</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -909,6 +879,46 @@
     <t>・AキーでSEを流し、タイトル画面に移行</t>
     <rPh sb="8" eb="9">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>▼残りの「木箱」の数の表示</t>
+    <rPh sb="5" eb="7">
+      <t>キバコ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・木箱の画像（3Dモデル）を残り岩の数の左隣に表示させる。</t>
+    <rPh sb="1" eb="3">
+      <t>キバコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・5つの面をクリアしたらエンディングシーンへ</t>
+    <rPh sb="1" eb="3">
+      <t>キバコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・全ての木箱を破壊すればステージクリア。</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キバコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハカイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -2424,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79:T117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2453,7 +2463,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -2479,7 +2489,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2511,15 +2521,15 @@
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>21</v>
@@ -2544,28 +2554,28 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2579,20 +2589,20 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>16</v>
@@ -2600,7 +2610,7 @@
     </row>
     <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>19</v>
@@ -2611,7 +2621,7 @@
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2623,20 +2633,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2646,20 +2656,20 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K24" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K27" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2673,20 +2683,20 @@
     </row>
     <row r="28" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2696,17 +2706,17 @@
     </row>
     <row r="32" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K32" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K34" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -2733,7 +2743,7 @@
     </row>
     <row r="38" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2750,7 +2760,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2767,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2778,7 +2788,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
       <c r="K43" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2789,14 +2799,14 @@
       <c r="B45" s="10"/>
       <c r="G45" s="11"/>
       <c r="K45" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="10"/>
       <c r="G46" s="11"/>
       <c r="K46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2807,14 +2817,14 @@
       <c r="B48" s="10"/>
       <c r="G48" s="11"/>
       <c r="K48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="10"/>
       <c r="G49" s="11"/>
       <c r="K49" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2825,24 +2835,24 @@
       <c r="B51" s="10"/>
       <c r="G51" s="11"/>
       <c r="K51" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="10"/>
       <c r="G52" s="11"/>
       <c r="K52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="10"/>
       <c r="G53" s="11"/>
       <c r="K53" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2863,10 +2873,10 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="K55" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2874,33 +2884,33 @@
         <v>10</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K59" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2914,10 +2924,10 @@
     </row>
     <row r="61" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K61" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2925,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2940,7 +2950,7 @@
       <c r="B64" s="10"/>
       <c r="G64" s="11"/>
       <c r="K64" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2967,7 +2977,7 @@
       <c r="B67" s="10"/>
       <c r="G67" s="11"/>
       <c r="K67" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2978,21 +2988,21 @@
       <c r="B69" s="10"/>
       <c r="G69" s="11"/>
       <c r="K69" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="10"/>
       <c r="G70" s="11"/>
       <c r="K70" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="10"/>
       <c r="G71" s="11"/>
       <c r="K71" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -3003,7 +3013,7 @@
       <c r="B73" s="10"/>
       <c r="G73" s="11"/>
       <c r="L73" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3016,27 +3026,27 @@
     </row>
     <row r="75" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K79" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3055,7 +3065,7 @@
     </row>
     <row r="82" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3072,70 +3082,70 @@
     </row>
     <row r="84" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K86" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K90" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3157,7 +3167,7 @@
     </row>
     <row r="96" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3167,7 +3177,7 @@
     </row>
     <row r="98" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L98" s="7"/>
       <c r="M98" s="8"/>
@@ -3178,7 +3188,7 @@
     </row>
     <row r="99" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L99" s="10"/>
       <c r="Q99" s="11"/>
@@ -3196,28 +3206,28 @@
     </row>
     <row r="102" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L102" s="10"/>
       <c r="Q102" s="11"/>
     </row>
     <row r="103" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L103" s="10"/>
       <c r="Q103" s="11"/>
     </row>
     <row r="104" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L104" s="10"/>
       <c r="Q104" s="11"/>
     </row>
     <row r="105" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C105" s="5"/>
       <c r="E105" s="5"/>
@@ -3232,14 +3242,14 @@
     </row>
     <row r="107" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L107" s="10"/>
       <c r="Q107" s="11"/>
     </row>
     <row r="108" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L108" s="10"/>
       <c r="Q108" s="11"/>
@@ -3274,7 +3284,7 @@
     </row>
     <row r="111" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -3290,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -3300,10 +3310,10 @@
     </row>
     <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -3311,7 +3321,7 @@
         <v>21</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -3321,17 +3331,17 @@
     </row>
     <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
